--- a/biology/Microbiologie/Cupriavidus_necator/Cupriavidus_necator.xlsx
+++ b/biology/Microbiologie/Cupriavidus_necator/Cupriavidus_necator.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cupriavidus necator est une bactérie du sol à paroi Gram-négatif appartenant au groupe des β-Protéobactéries[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cupriavidus necator est une bactérie du sol à paroi Gram-négatif appartenant au groupe des β-Protéobactéries.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C. necator a changé de nom plusieurs fois: Ralstonia eutropha, Alcaligenes eutrophus, Wautersia eutropha. 
-De nombreux micro-organismes ont été isolés pour leur aptitude à utiliser l’hydrogène, ce sont des micro-organismes chimiolithotrophes métabolisant l’hydrogène et ils ont été regroupés dans le groupe Hydrogenomonas mais ce groupe n'est plus reconnu par la communauté scientifique [2]. Ces micro-organismes sont maintenant classés dans différents groupes.
+De nombreux micro-organismes ont été isolés pour leur aptitude à utiliser l’hydrogène, ce sont des micro-organismes chimiolithotrophes métabolisant l’hydrogène et ils ont été regroupés dans le groupe Hydrogenomonas mais ce groupe n'est plus reconnu par la communauté scientifique . Ces micro-organismes sont maintenant classés dans différents groupes.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Métabolisme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C. necator est une bactérie knallgas (en) (qui oxyde l’hydrogène avec l'oxygène de l'air), aussi capable de se développer dans des environnements  anaérobies.
 </t>
